--- a/Horarios de presentacion de proyecto.xlsx
+++ b/Horarios de presentacion de proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniebe\Documents\AmdocsGDL\training\ZAP Academy\Curso Back-end basico Agosto2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF08BE75-A9F2-483A-A512-F68281836BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA84CDBB-3F08-42CC-A123-2A9B6F5B838A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BC8CDCB7-245E-454B-A002-8A42DDB65EE0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -171,9 +171,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -206,6 +203,9 @@
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -220,12 +220,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25B0D13C-4763-4478-ADB5-577E8BD50C35}" name="Table1" displayName="Table1" ref="B1:E13" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25B0D13C-4763-4478-ADB5-577E8BD50C35}" name="Table1" displayName="Table1" ref="B1:E13" totalsRowShown="0" dataDxfId="9">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{18C83461-BD72-4A8A-9FE7-D1343754FB70}" name="#" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B3302E0D-F3A1-43B6-B3E4-62699DFE1078}" name="Nombre" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{87DBA281-84DB-46FF-B108-CD37FBE04C1C}" name="Fecha" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{7E6DDE45-7C40-46A5-9214-457001DE93ED}" name="Hora" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{18C83461-BD72-4A8A-9FE7-D1343754FB70}" name="#" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B3302E0D-F3A1-43B6-B3E4-62699DFE1078}" name="Nombre" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{87DBA281-84DB-46FF-B108-CD37FBE04C1C}" name="Fecha" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7E6DDE45-7C40-46A5-9214-457001DE93ED}" name="Hora" dataDxfId="5">
       <calculatedColumnFormula>E1+$G$2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -234,12 +234,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{554DDBDB-A84F-4065-B24B-E5A3908DD95A}" name="Table2" displayName="Table2" ref="B16:E29" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{554DDBDB-A84F-4065-B24B-E5A3908DD95A}" name="Table2" displayName="Table2" ref="B16:E29" totalsRowShown="0" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{87B0C815-C6A0-43FD-92E3-D65CCD4F935F}" name="#" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A3131623-792B-43E0-9331-B1C59D1B7D34}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4F4A6F9A-EE98-4ECE-9747-794C682AA955}" name="Fecha" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3051FB1E-8D12-47C7-A363-C06C9949E5E1}" name="Hora" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{87B0C815-C6A0-43FD-92E3-D65CCD4F935F}" name="#" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A3131623-792B-43E0-9331-B1C59D1B7D34}" name="Nombre" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4F4A6F9A-EE98-4ECE-9747-794C682AA955}" name="Fecha" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3051FB1E-8D12-47C7-A363-C06C9949E5E1}" name="Hora" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,7 +545,7 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
     <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E2" s="4">
         <v>0.33333333333333331</v>
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E3" s="4">
         <f>E2+$G$2</f>
@@ -609,7 +609,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E4" s="4">
         <f>E3+$G$2</f>
@@ -624,7 +624,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ref="E5:E13" si="0">E4+$G$2</f>
@@ -639,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
@@ -654,7 +654,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
@@ -684,7 +684,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
@@ -699,15 +699,12 @@
         <v>8</v>
       </c>
       <c r="D10" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>0.38888888888888867</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
@@ -717,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
@@ -732,7 +729,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
@@ -747,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>43725</v>
+        <v>43727</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
@@ -776,11 +773,10 @@
         <v>17</v>
       </c>
       <c r="D17" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E17" s="4">
-        <f>E2</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -791,11 +787,11 @@
         <v>22</v>
       </c>
       <c r="D18" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" ref="E18:E28" si="1">E3</f>
-        <v>0.34027777777777773</v>
+        <f>E17+$G$2</f>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -806,11 +802,11 @@
         <v>18</v>
       </c>
       <c r="D19" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34722222222222215</v>
+        <f t="shared" ref="E19:E29" si="1">E18+$G$2</f>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -821,11 +817,11 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>0.35416666666666657</v>
+        <v>0.52083333333333326</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -836,11 +832,11 @@
         <v>26</v>
       </c>
       <c r="D21" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>0.36111111111111099</v>
+        <v>0.52777777777777768</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -851,11 +847,11 @@
         <v>14</v>
       </c>
       <c r="D22" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>0.36805555555555541</v>
+        <v>0.5347222222222221</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -866,11 +862,11 @@
         <v>4</v>
       </c>
       <c r="D23" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="1"/>
-        <v>0.37499999999999983</v>
+        <v>0.54166666666666652</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -881,11 +877,11 @@
         <v>7</v>
       </c>
       <c r="D24" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>0.38194444444444425</v>
+        <v>0.54861111111111094</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -896,11 +892,11 @@
         <v>12</v>
       </c>
       <c r="D25" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
-        <v>0.38888888888888867</v>
+        <v>0.55555555555555536</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -911,11 +907,11 @@
         <v>11</v>
       </c>
       <c r="D26" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>0.39583333333333309</v>
+        <v>0.56249999999999978</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -926,11 +922,11 @@
         <v>9</v>
       </c>
       <c r="D27" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="1"/>
-        <v>0.40277777777777751</v>
+        <v>0.5694444444444442</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -941,11 +937,11 @@
         <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>0.40972222222222193</v>
+        <v>0.57638888888888862</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -956,11 +952,11 @@
         <v>13</v>
       </c>
       <c r="D29" s="3">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E29" s="4">
-        <f>E28+G2</f>
-        <v>0.41666666666666635</v>
+        <f t="shared" si="1"/>
+        <v>0.58333333333333304</v>
       </c>
     </row>
   </sheetData>
